--- a/Documentos/Tabla de Jugadores.xlsx
+++ b/Documentos/Tabla de Jugadores.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R6a077a87f9be42e3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R80ec14e3820b4b43"/>
   </x:sheets>
 </x:workbook>
 </file>
